--- a/assets/archivo-prueba-importacion.xlsx
+++ b/assets/archivo-prueba-importacion.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,69 +16,140 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> a</t>
-    </r>
-  </si>
-  <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>2 a</t>
-  </si>
-  <si>
-    <t>2 b </t>
-  </si>
-  <si>
-    <t>2 c</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>ew</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+  <si>
+    <t>INSERTE UNA CATEGORÍA</t>
+  </si>
+  <si>
+    <t>cod_categoria</t>
+  </si>
+  <si>
+    <t>nombre_cat</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>mostrar</t>
+  </si>
+  <si>
+    <t>CAT_BRA</t>
+  </si>
+  <si>
+    <t>Brasileirao</t>
+  </si>
+  <si>
+    <t>Liga de Brasil</t>
+  </si>
+  <si>
+    <t>INSERTE CAMISETAS</t>
+  </si>
+  <si>
+    <t>cod_camiseta</t>
+  </si>
+  <si>
+    <t>nombre_cam</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>descuento</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>iva</t>
+  </si>
+  <si>
+    <t>seleccionada</t>
+  </si>
+  <si>
+    <t>fecha_inicio</t>
+  </si>
+  <si>
+    <t>fecha_fin</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>CAT_CORI</t>
+  </si>
+  <si>
+    <t>Sport Club Corinthians Paulista</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>cat_10/corin.jpg</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>Camiseta Corinthians Home 2016</t>
+  </si>
+  <si>
+    <t>CAT_SAO</t>
+  </si>
+  <si>
+    <t>Sao Paulo Futebol Clube</t>
+  </si>
+  <si>
+    <t>cat_10/saopaulo.jpg</t>
+  </si>
+  <si>
+    <t>Camiseta Sao Paulo Home 2016</t>
+  </si>
+  <si>
+    <t>CAT_MEX</t>
+  </si>
+  <si>
+    <t>LigaM  MX</t>
+  </si>
+  <si>
+    <t>Primera División de México</t>
+  </si>
+  <si>
+    <t>CAT_AME</t>
+  </si>
+  <si>
+    <t>Club de Fútbol América</t>
+  </si>
+  <si>
+    <t>cat_11/america.jpg</t>
+  </si>
+  <si>
+    <t>Camiseta CF América Home 2016</t>
+  </si>
+  <si>
+    <t>CAT_CRUZ</t>
+  </si>
+  <si>
+    <t>Cruz Azul Fútbol Club</t>
+  </si>
+  <si>
+    <t>cat_11/cruzazul.jpg</t>
+  </si>
+  <si>
+    <t>Camiseta Cruz Azul FC Home 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -99,19 +170,19 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,10 +219,26 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -170,10 +257,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -182,29 +269,180 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>42370</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>42735</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>42370</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>42735</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:L5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -220,40 +458,192 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>42370</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>42735</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>42370</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>42735</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:L5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/assets/archivo-prueba-importacion.xlsx
+++ b/assets/archivo-prueba-importacion.xlsx
@@ -2,16 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -111,7 +116,7 @@
     <t>CAT_MEX</t>
   </si>
   <si>
-    <t>LigaM  MX</t>
+    <t>Liga  MX</t>
   </si>
   <si>
     <t>Primera División de México</t>
@@ -154,6 +159,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -224,7 +230,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -259,14 +265,13 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,14 +465,13 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,7 +650,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
